--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_24_19.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_24_19.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>396696.1535865306</v>
+        <v>393994.5056839957</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.493767343</v>
+        <v>603248.4937673432</v>
       </c>
     </row>
     <row r="9">
@@ -656,25 +656,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>187.5255871663198</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>187.5255871663198</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>187.5255871663202</v>
       </c>
       <c r="F2" t="n">
-        <v>187.5255871663198</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
         <v>13.09783323005805</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>187.5255871663202</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -710,19 +710,19 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>152.0747039460364</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>187.5255871663202</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>145.1986582043253</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -735,19 +735,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>36.39469600159808</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -759,7 +759,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>15.37922103265842</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -786,22 +786,22 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>149.7702446909496</v>
       </c>
       <c r="T3" t="n">
-        <v>74.68513206265212</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>187.5255871663202</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>187.5255871663202</v>
       </c>
       <c r="X3" t="n">
-        <v>187.5255871663198</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -871,10 +871,10 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>52.21594625443431</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>52.2159462544348</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -893,28 +893,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>356.0261917321608</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>293.743273456143</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>411.8707348436268</v>
+        <v>11.87073484362677</v>
       </c>
       <c r="H5" t="n">
         <v>304.326804756183</v>
       </c>
       <c r="I5" t="n">
-        <v>78.16360657708299</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,22 +941,22 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>130.8133087092504</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>208.0722578696039</v>
       </c>
       <c r="U5" t="n">
-        <v>251.0710926941158</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -978,16 +978,16 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>135.5072338470353</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -1026,22 +1026,22 @@
         <v>137.5750138932992</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>192.7632183107638</v>
       </c>
       <c r="U6" t="n">
         <v>225.8205739680685</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>148.7016668837206</v>
       </c>
       <c r="W6" t="n">
-        <v>234.9617728235325</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -1060,22 +1060,22 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>136.4281743661717</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>148.5398113612452</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>18.15430933923925</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1102,13 +1102,13 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>197.1876907596159</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>252.3685669536095</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1133,13 +1133,13 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>204.6362302492156</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
@@ -1184,10 +1184,10 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>207.8978127731749</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.0679046626562</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -1196,10 +1196,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>302.6366244978311</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1209,25 +1209,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>94.29488917436606</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>30.34503645282948</v>
+        <v>30.3450364528295</v>
       </c>
       <c r="S9" t="n">
         <v>137.1789700647269</v>
@@ -1266,16 +1266,16 @@
         <v>192.6772763323794</v>
       </c>
       <c r="U9" t="n">
-        <v>31.56383516376358</v>
+        <v>225.819171215429</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>251.6949831609196</v>
+        <v>122.1903384582044</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
         <v>205.6826957773044</v>
@@ -1291,13 +1291,13 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1312,7 +1312,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>3.419623079618701</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1333,7 +1333,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>21.09786070099022</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1345,10 +1345,10 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>234.6760972201901</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1370,7 +1370,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -1379,13 +1379,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>410.4696069132659</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>289.9775033393748</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1418,13 +1418,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>98.88510599615208</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>201.9388203544491</v>
+        <v>201.9388203544492</v>
       </c>
       <c r="U11" t="n">
-        <v>90.87307469724212</v>
+        <v>250.959002459687</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1436,7 +1436,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>76.66276752108828</v>
       </c>
     </row>
     <row r="12">
@@ -1467,7 +1467,7 @@
         <v>87.2605838181255</v>
       </c>
       <c r="I12" t="n">
-        <v>10.48847705530787</v>
+        <v>10.48847705530788</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1525,25 +1525,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>136.7254352278186</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.8230033569236</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>142.9518949665179</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1573,10 +1573,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>79.81330679905237</v>
       </c>
       <c r="S13" t="n">
-        <v>151.4966728103603</v>
+        <v>186.2346889920369</v>
       </c>
       <c r="T13" t="n">
         <v>218.682419239904</v>
@@ -1585,16 +1585,16 @@
         <v>286.2007761200435</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1622,7 +1622,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444135</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1664,7 +1664,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701341</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>133.1319933510085</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>2.827960088325199e-12</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>99.97427419833492</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1813,7 +1813,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016454</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
@@ -1831,7 +1831,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1847,7 +1847,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>354.683041620682</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
@@ -1898,7 +1898,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881294</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -2005,19 +2005,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>83.06560892428179</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,16 +2047,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>72.26558381700181</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2068,7 +2068,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520923</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2147,7 +2147,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560528</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -2236,7 +2236,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>53.11937003877659</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -2245,10 +2245,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>99.9742741983378</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2257,7 +2257,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2296,7 +2296,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
-        <v>252.1376433238304</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2318,7 +2318,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710066</v>
       </c>
       <c r="D23" t="n">
         <v>354.683041620683</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2479,10 +2479,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>83.06560892428107</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2521,13 +2521,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>71.79687029690987</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
@@ -2561,7 +2561,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722608</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
@@ -2710,7 +2710,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -2719,19 +2719,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>99.97427419833829</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,10 +2758,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
@@ -2776,7 +2776,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>73.97774435451676</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2804,7 +2804,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>409.8033385187852</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H29" t="n">
         <v>283.1540821444137</v>
@@ -2846,7 +2846,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U29" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881295</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -2950,10 +2950,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>120.7871326503988</v>
       </c>
       <c r="D31" t="n">
-        <v>3.00689298783406</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -2962,7 +2962,7 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3026,7 +3026,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
@@ -3190,19 +3190,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>102.1557845699813</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>9.146142788179546</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3317,7 +3317,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
         <v>250.9057009881286</v>
@@ -3427,19 +3427,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>102.1557845699812</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>83.06560892428179</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3557,10 +3557,10 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
@@ -3664,19 +3664,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>99.97427419833785</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>83.06560892428179</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3749,7 +3749,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G41" t="n">
         <v>409.8033385187866</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3898,22 +3898,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>120.7871326503973</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>9.146142788179031</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -3989,7 +3989,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H44" t="n">
         <v>283.1540821444137</v>
@@ -4138,7 +4138,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -4147,13 +4147,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>99.97427419833829</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,10 +4180,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>108.9065924712587</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
         <v>217.4054503272883</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>407.0717515820911</v>
+        <v>414.0172523312954</v>
       </c>
       <c r="C2" t="n">
-        <v>217.6519665656065</v>
+        <v>414.0172523312954</v>
       </c>
       <c r="D2" t="n">
-        <v>217.6519665656065</v>
+        <v>414.0172523312954</v>
       </c>
       <c r="E2" t="n">
-        <v>217.6519665656065</v>
+        <v>224.5974673148104</v>
       </c>
       <c r="F2" t="n">
-        <v>28.2321815491218</v>
+        <v>217.6519665656069</v>
       </c>
       <c r="G2" t="n">
-        <v>15.00204697330559</v>
+        <v>204.4218319897907</v>
       </c>
       <c r="H2" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="I2" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="J2" t="n">
-        <v>21.033711606785</v>
+        <v>21.03371160678506</v>
       </c>
       <c r="K2" t="n">
-        <v>80.81213159058944</v>
+        <v>80.81213159058973</v>
       </c>
       <c r="L2" t="n">
-        <v>191.8743094079184</v>
+        <v>191.8743094079187</v>
       </c>
       <c r="M2" t="n">
-        <v>347.1218190644755</v>
+        <v>347.121819064476</v>
       </c>
       <c r="N2" t="n">
-        <v>509.4952041123828</v>
+        <v>509.4952041123834</v>
       </c>
       <c r="O2" t="n">
-        <v>649.4845259985582</v>
+        <v>649.4845259985592</v>
       </c>
       <c r="P2" t="n">
-        <v>734.4611726020262</v>
+        <v>734.4611726020275</v>
       </c>
       <c r="Q2" t="n">
-        <v>750.1023486652792</v>
+        <v>750.1023486652808</v>
       </c>
       <c r="R2" t="n">
-        <v>750.1023486652792</v>
+        <v>750.1023486652808</v>
       </c>
       <c r="S2" t="n">
-        <v>750.1023486652792</v>
+        <v>750.1023486652808</v>
       </c>
       <c r="T2" t="n">
-        <v>596.4915365985757</v>
+        <v>750.1023486652808</v>
       </c>
       <c r="U2" t="n">
-        <v>596.4915365985757</v>
+        <v>750.1023486652808</v>
       </c>
       <c r="V2" t="n">
-        <v>596.4915365985757</v>
+        <v>560.6825636487957</v>
       </c>
       <c r="W2" t="n">
-        <v>596.4915365985757</v>
+        <v>560.6825636487957</v>
       </c>
       <c r="X2" t="n">
-        <v>596.4915365985757</v>
+        <v>414.0172523312954</v>
       </c>
       <c r="Y2" t="n">
-        <v>596.4915365985757</v>
+        <v>414.0172523312954</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>485.2430363127824</v>
+        <v>51.76436616683904</v>
       </c>
       <c r="C3" t="n">
-        <v>485.2430363127824</v>
+        <v>51.76436616683904</v>
       </c>
       <c r="D3" t="n">
-        <v>336.3086266515311</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="E3" t="n">
-        <v>177.0711716460756</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="F3" t="n">
-        <v>30.53661367296056</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="G3" t="n">
-        <v>30.53661367296056</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="H3" t="n">
-        <v>30.53661367296056</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="I3" t="n">
-        <v>30.53661367296056</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="J3" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="K3" t="n">
-        <v>67.13418877024208</v>
+        <v>67.13418877024196</v>
       </c>
       <c r="L3" t="n">
-        <v>183.5548280772648</v>
+        <v>183.554828077265</v>
       </c>
       <c r="M3" t="n">
-        <v>338.7690911140243</v>
+        <v>338.7690911140247</v>
       </c>
       <c r="N3" t="n">
-        <v>512.5000587546599</v>
+        <v>512.5000587546606</v>
       </c>
       <c r="O3" t="n">
-        <v>649.2101578476345</v>
+        <v>649.2101578476354</v>
       </c>
       <c r="P3" t="n">
-        <v>739.5989987017058</v>
+        <v>739.5989987017073</v>
       </c>
       <c r="Q3" t="n">
-        <v>750.1023486652792</v>
+        <v>750.1023486652808</v>
       </c>
       <c r="R3" t="n">
-        <v>750.1023486652792</v>
+        <v>750.1023486652808</v>
       </c>
       <c r="S3" t="n">
-        <v>750.1023486652792</v>
+        <v>598.8192732198772</v>
       </c>
       <c r="T3" t="n">
-        <v>674.662821329267</v>
+        <v>598.8192732198772</v>
       </c>
       <c r="U3" t="n">
-        <v>674.662821329267</v>
+        <v>598.8192732198772</v>
       </c>
       <c r="V3" t="n">
-        <v>674.662821329267</v>
+        <v>409.3994882033921</v>
       </c>
       <c r="W3" t="n">
-        <v>674.662821329267</v>
+        <v>219.9797031869071</v>
       </c>
       <c r="X3" t="n">
-        <v>485.2430363127824</v>
+        <v>219.9797031869071</v>
       </c>
       <c r="Y3" t="n">
-        <v>485.2430363127824</v>
+        <v>219.9797031869071</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="C4" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="D4" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="E4" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="F4" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="G4" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="H4" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="I4" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="J4" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="K4" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="L4" t="n">
-        <v>27.03967056230172</v>
+        <v>27.03967056230187</v>
       </c>
       <c r="M4" t="n">
-        <v>42.9899398517071</v>
+        <v>42.98993985170739</v>
       </c>
       <c r="N4" t="n">
-        <v>66.41847329396325</v>
+        <v>66.41847329396366</v>
       </c>
       <c r="O4" t="n">
-        <v>67.74542702828974</v>
+        <v>67.74542702829027</v>
       </c>
       <c r="P4" t="n">
-        <v>67.74542702828974</v>
+        <v>67.74542702829027</v>
       </c>
       <c r="Q4" t="n">
-        <v>67.74542702828974</v>
+        <v>67.74542702829027</v>
       </c>
       <c r="R4" t="n">
-        <v>67.74542702828974</v>
+        <v>67.74542702829027</v>
       </c>
       <c r="S4" t="n">
-        <v>67.74542702828974</v>
+        <v>67.74542702829027</v>
       </c>
       <c r="T4" t="n">
-        <v>67.74542702828974</v>
+        <v>67.74542702829027</v>
       </c>
       <c r="U4" t="n">
-        <v>15.00204697330559</v>
+        <v>67.74542702829027</v>
       </c>
       <c r="V4" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="W4" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="X4" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="Y4" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330562</v>
       </c>
     </row>
     <row r="5">
@@ -4541,43 +4541,43 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1528.25282250304</v>
+        <v>1113.760102633513</v>
       </c>
       <c r="C5" t="n">
-        <v>1528.25282250304</v>
+        <v>1113.760102633513</v>
       </c>
       <c r="D5" t="n">
-        <v>1528.25282250304</v>
+        <v>755.4944040267628</v>
       </c>
       <c r="E5" t="n">
-        <v>1142.464569904796</v>
+        <v>369.7061514285186</v>
       </c>
       <c r="F5" t="n">
-        <v>845.7541926763687</v>
+        <v>362.7606506793151</v>
       </c>
       <c r="G5" t="n">
-        <v>429.7231473797759</v>
+        <v>350.7700094231265</v>
       </c>
       <c r="H5" t="n">
-        <v>122.3223344947425</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="I5" t="n">
         <v>43.36919653809306</v>
       </c>
       <c r="J5" t="n">
-        <v>152.5078184301901</v>
+        <v>152.50781843019</v>
       </c>
       <c r="K5" t="n">
         <v>366.8168396232717</v>
       </c>
       <c r="L5" t="n">
-        <v>669.5878927711874</v>
+        <v>669.5878927711866</v>
       </c>
       <c r="M5" t="n">
         <v>1038.14846457873</v>
       </c>
       <c r="N5" t="n">
-        <v>1417.286540135167</v>
+        <v>1417.286540135166</v>
       </c>
       <c r="O5" t="n">
         <v>1761.960612545596</v>
@@ -4592,25 +4592,25 @@
         <v>2168.459826904653</v>
       </c>
       <c r="S5" t="n">
-        <v>2168.459826904653</v>
+        <v>2036.325171642784</v>
       </c>
       <c r="T5" t="n">
-        <v>2168.459826904653</v>
+        <v>1826.151173794699</v>
       </c>
       <c r="U5" t="n">
-        <v>1914.852662567162</v>
+        <v>1826.151173794699</v>
       </c>
       <c r="V5" t="n">
-        <v>1914.852662567162</v>
+        <v>1826.151173794699</v>
       </c>
       <c r="W5" t="n">
-        <v>1914.852662567162</v>
+        <v>1473.382518524585</v>
       </c>
       <c r="X5" t="n">
-        <v>1914.852662567162</v>
+        <v>1473.382518524585</v>
       </c>
       <c r="Y5" t="n">
-        <v>1914.852662567162</v>
+        <v>1473.382518524585</v>
       </c>
     </row>
     <row r="6">
@@ -4620,19 +4620,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>686.8333161061965</v>
+        <v>560.2603676655167</v>
       </c>
       <c r="C6" t="n">
-        <v>512.3802868250696</v>
+        <v>385.8073383843897</v>
       </c>
       <c r="D6" t="n">
-        <v>363.4458771638183</v>
+        <v>385.8073383843897</v>
       </c>
       <c r="E6" t="n">
-        <v>363.4458771638183</v>
+        <v>226.5698833789342</v>
       </c>
       <c r="F6" t="n">
-        <v>216.9113191907033</v>
+        <v>80.03532540581918</v>
       </c>
       <c r="G6" t="n">
         <v>80.03532540581918</v>
@@ -4674,22 +4674,22 @@
         <v>1595.273638474382</v>
       </c>
       <c r="T6" t="n">
-        <v>1595.273638474382</v>
+        <v>1400.563316948358</v>
       </c>
       <c r="U6" t="n">
-        <v>1367.172048607646</v>
+        <v>1172.461727081622</v>
       </c>
       <c r="V6" t="n">
-        <v>1132.019940375904</v>
+        <v>1022.258023158672</v>
       </c>
       <c r="W6" t="n">
-        <v>894.6848163117294</v>
+        <v>768.0206664304706</v>
       </c>
       <c r="X6" t="n">
-        <v>686.8333161061965</v>
+        <v>768.0206664304706</v>
       </c>
       <c r="Y6" t="n">
-        <v>686.8333161061965</v>
+        <v>560.2603676655167</v>
       </c>
     </row>
     <row r="7">
@@ -4699,28 +4699,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>497.4664265514521</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="C7" t="n">
-        <v>497.4664265514521</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="D7" t="n">
-        <v>497.4664265514521</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="E7" t="n">
-        <v>349.5533329690589</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="F7" t="n">
-        <v>349.5533329690589</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="G7" t="n">
-        <v>211.7470962355521</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="H7" t="n">
-        <v>61.70688273934482</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="I7" t="n">
-        <v>61.70688273934482</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="J7" t="n">
         <v>43.36919653809306</v>
@@ -4750,25 +4750,25 @@
         <v>497.4664265514521</v>
       </c>
       <c r="S7" t="n">
-        <v>497.4664265514521</v>
+        <v>298.2869409356784</v>
       </c>
       <c r="T7" t="n">
-        <v>497.4664265514521</v>
+        <v>298.2869409356784</v>
       </c>
       <c r="U7" t="n">
-        <v>497.4664265514521</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="V7" t="n">
-        <v>497.4664265514521</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="W7" t="n">
-        <v>497.4664265514521</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="X7" t="n">
-        <v>497.4664265514521</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="Y7" t="n">
-        <v>497.4664265514521</v>
+        <v>43.36919653809306</v>
       </c>
     </row>
     <row r="8">
@@ -4778,13 +4778,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1580.293765528144</v>
+        <v>1032.246258867483</v>
       </c>
       <c r="C8" t="n">
-        <v>1211.331248587732</v>
+        <v>1032.246258867483</v>
       </c>
       <c r="D8" t="n">
-        <v>853.0655499809816</v>
+        <v>673.980560260733</v>
       </c>
       <c r="E8" t="n">
         <v>467.2772973827374</v>
@@ -4802,16 +4802,16 @@
         <v>44.34100425941067</v>
       </c>
       <c r="J8" t="n">
-        <v>156.8280559420299</v>
+        <v>156.82805594203</v>
       </c>
       <c r="K8" t="n">
-        <v>376.1555054002245</v>
+        <v>376.1555054002247</v>
       </c>
       <c r="L8" t="n">
-        <v>685.1523625707939</v>
+        <v>685.1523625707948</v>
       </c>
       <c r="M8" t="n">
-        <v>1060.64034093755</v>
+        <v>1060.640340937551</v>
       </c>
       <c r="N8" t="n">
         <v>1446.817915733709</v>
@@ -4832,22 +4832,22 @@
         <v>2217.050212970534</v>
       </c>
       <c r="T8" t="n">
-        <v>2217.050212970534</v>
+        <v>2007.052422290559</v>
       </c>
       <c r="U8" t="n">
-        <v>2217.050212970534</v>
+        <v>1753.448478186866</v>
       </c>
       <c r="V8" t="n">
-        <v>1885.987325626963</v>
+        <v>1422.385590843295</v>
       </c>
       <c r="W8" t="n">
-        <v>1885.987325626963</v>
+        <v>1422.385590843295</v>
       </c>
       <c r="X8" t="n">
-        <v>1580.293765528144</v>
+        <v>1422.385590843295</v>
       </c>
       <c r="Y8" t="n">
-        <v>1580.293765528144</v>
+        <v>1032.246258867483</v>
       </c>
     </row>
     <row r="9">
@@ -4857,22 +4857,22 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>499.0474268992325</v>
+        <v>473.2788513483831</v>
       </c>
       <c r="C9" t="n">
-        <v>499.0474268992325</v>
+        <v>298.8258220672561</v>
       </c>
       <c r="D9" t="n">
-        <v>350.1130172379812</v>
+        <v>298.8258220672561</v>
       </c>
       <c r="E9" t="n">
-        <v>190.8755622325257</v>
+        <v>139.5883670618007</v>
       </c>
       <c r="F9" t="n">
-        <v>44.34100425941067</v>
+        <v>139.5883670618007</v>
       </c>
       <c r="G9" t="n">
-        <v>44.34100425941067</v>
+        <v>139.5883670618007</v>
       </c>
       <c r="H9" t="n">
         <v>44.34100425941067</v>
@@ -4881,19 +4881,19 @@
         <v>44.34100425941067</v>
       </c>
       <c r="J9" t="n">
-        <v>92.51967467113525</v>
+        <v>92.51967467113522</v>
       </c>
       <c r="K9" t="n">
-        <v>253.0195209154166</v>
+        <v>253.0195209154165</v>
       </c>
       <c r="L9" t="n">
-        <v>515.1539122572549</v>
+        <v>515.1539122572547</v>
       </c>
       <c r="M9" t="n">
-        <v>840.4092510449748</v>
+        <v>840.4092510449743</v>
       </c>
       <c r="N9" t="n">
-        <v>1188.681775738687</v>
+        <v>1188.681775738686</v>
       </c>
       <c r="O9" t="n">
         <v>1485.063300074215</v>
@@ -4902,31 +4902,31 @@
         <v>1703.602536566945</v>
       </c>
       <c r="Q9" t="n">
-        <v>1799.771032257643</v>
+        <v>1799.771032257642</v>
       </c>
       <c r="R9" t="n">
-        <v>1769.119480285088</v>
+        <v>1769.119480285087</v>
       </c>
       <c r="S9" t="n">
-        <v>1630.554864058091</v>
+        <v>1630.55486405809</v>
       </c>
       <c r="T9" t="n">
-        <v>1435.931352611243</v>
+        <v>1435.931352611242</v>
       </c>
       <c r="U9" t="n">
-        <v>1404.048690829663</v>
+        <v>1207.831179666364</v>
       </c>
       <c r="V9" t="n">
-        <v>1168.896582597921</v>
+        <v>972.6790714346216</v>
       </c>
       <c r="W9" t="n">
-        <v>914.6592258697192</v>
+        <v>849.2544871334051</v>
       </c>
       <c r="X9" t="n">
-        <v>706.8077256641864</v>
+        <v>849.2544871334051</v>
       </c>
       <c r="Y9" t="n">
-        <v>499.0474268992325</v>
+        <v>641.4941883684512</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>514.761084908934</v>
+        <v>44.34100425941067</v>
       </c>
       <c r="C10" t="n">
-        <v>345.8249019810271</v>
+        <v>44.34100425941067</v>
       </c>
       <c r="D10" t="n">
-        <v>195.7082625686914</v>
+        <v>44.34100425941067</v>
       </c>
       <c r="E10" t="n">
-        <v>47.79516898629825</v>
+        <v>44.34100425941067</v>
       </c>
       <c r="F10" t="n">
-        <v>47.79516898629825</v>
+        <v>44.34100425941067</v>
       </c>
       <c r="G10" t="n">
-        <v>47.79516898629825</v>
+        <v>44.34100425941067</v>
       </c>
       <c r="H10" t="n">
-        <v>47.79516898629825</v>
+        <v>44.34100425941067</v>
       </c>
       <c r="I10" t="n">
-        <v>47.79516898629825</v>
+        <v>44.34100425941067</v>
       </c>
       <c r="J10" t="n">
         <v>44.34100425941067</v>
       </c>
       <c r="K10" t="n">
-        <v>95.74470838016762</v>
+        <v>95.74470838016757</v>
       </c>
       <c r="L10" t="n">
-        <v>191.4295496810364</v>
+        <v>191.4295496810363</v>
       </c>
       <c r="M10" t="n">
-        <v>295.5740818422664</v>
+        <v>295.5740818422663</v>
       </c>
       <c r="N10" t="n">
-        <v>405.0998157091253</v>
+        <v>405.0998157091252</v>
       </c>
       <c r="O10" t="n">
-        <v>485.9514692712736</v>
+        <v>485.9514692712734</v>
       </c>
       <c r="P10" t="n">
-        <v>536.0720553139746</v>
+        <v>536.0720553139744</v>
       </c>
       <c r="Q10" t="n">
-        <v>514.761084908934</v>
+        <v>536.0720553139744</v>
       </c>
       <c r="R10" t="n">
-        <v>514.761084908934</v>
+        <v>536.0720553139744</v>
       </c>
       <c r="S10" t="n">
-        <v>514.761084908934</v>
+        <v>536.0720553139744</v>
       </c>
       <c r="T10" t="n">
-        <v>514.761084908934</v>
+        <v>536.0720553139744</v>
       </c>
       <c r="U10" t="n">
-        <v>514.761084908934</v>
+        <v>299.0254924652975</v>
       </c>
       <c r="V10" t="n">
-        <v>514.761084908934</v>
+        <v>44.34100425941067</v>
       </c>
       <c r="W10" t="n">
-        <v>514.761084908934</v>
+        <v>44.34100425941067</v>
       </c>
       <c r="X10" t="n">
-        <v>514.761084908934</v>
+        <v>44.34100425941067</v>
       </c>
       <c r="Y10" t="n">
-        <v>514.761084908934</v>
+        <v>44.34100425941067</v>
       </c>
     </row>
     <row r="11">
@@ -5015,34 +5015,34 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1647.193286469377</v>
+        <v>1898.076467649853</v>
       </c>
       <c r="C11" t="n">
-        <v>1647.193286469377</v>
+        <v>1529.113950709441</v>
       </c>
       <c r="D11" t="n">
-        <v>1288.927587862627</v>
+        <v>1170.848252102691</v>
       </c>
       <c r="E11" t="n">
-        <v>903.1393352643827</v>
+        <v>785.0599995044468</v>
       </c>
       <c r="F11" t="n">
-        <v>492.1534304747752</v>
+        <v>785.0599995044468</v>
       </c>
       <c r="G11" t="n">
-        <v>77.53766591592077</v>
+        <v>370.4442349455922</v>
       </c>
       <c r="H11" t="n">
-        <v>77.53766591592077</v>
+        <v>77.53766591592074</v>
       </c>
       <c r="I11" t="n">
-        <v>77.53766591592077</v>
+        <v>77.53766591592074</v>
       </c>
       <c r="J11" t="n">
-        <v>304.4060796706888</v>
+        <v>304.4060796706895</v>
       </c>
       <c r="K11" t="n">
-        <v>695.1615405656958</v>
+        <v>695.1615405656962</v>
       </c>
       <c r="L11" t="n">
         <v>1216.83000462533</v>
@@ -5051,40 +5051,40 @@
         <v>1828.956123087831</v>
       </c>
       <c r="N11" t="n">
-        <v>2455.600890484044</v>
+        <v>2455.600890484043</v>
       </c>
       <c r="O11" t="n">
         <v>3033.988513535297</v>
       </c>
       <c r="P11" t="n">
-        <v>3493.127967479997</v>
+        <v>3493.127967479995</v>
       </c>
       <c r="Q11" t="n">
-        <v>3789.749829464063</v>
+        <v>3789.749829464062</v>
       </c>
       <c r="R11" t="n">
-        <v>3876.883295796039</v>
+        <v>3876.883295796037</v>
       </c>
       <c r="S11" t="n">
-        <v>3776.99935034538</v>
+        <v>3876.883295796037</v>
       </c>
       <c r="T11" t="n">
-        <v>3573.020743926744</v>
+        <v>3672.904689377402</v>
       </c>
       <c r="U11" t="n">
-        <v>3481.229759384075</v>
+        <v>3419.41074749893</v>
       </c>
       <c r="V11" t="n">
-        <v>3150.166872040505</v>
+        <v>3088.347860155359</v>
       </c>
       <c r="W11" t="n">
-        <v>2797.398216770391</v>
+        <v>2735.579204885245</v>
       </c>
       <c r="X11" t="n">
-        <v>2423.932458509311</v>
+        <v>2362.113446624165</v>
       </c>
       <c r="Y11" t="n">
-        <v>2033.793126533499</v>
+        <v>2284.676307713975</v>
       </c>
     </row>
     <row r="12">
@@ -5112,34 +5112,34 @@
         <v>176.2740910406009</v>
       </c>
       <c r="H12" t="n">
-        <v>88.13208718390851</v>
+        <v>88.1320871839085</v>
       </c>
       <c r="I12" t="n">
-        <v>77.53766591592077</v>
+        <v>77.53766591592074</v>
       </c>
       <c r="J12" t="n">
-        <v>193.8410919870414</v>
+        <v>193.8410919870413</v>
       </c>
       <c r="K12" t="n">
-        <v>470.7769964046659</v>
+        <v>470.7769964046656</v>
       </c>
       <c r="L12" t="n">
-        <v>503.2284887929935</v>
+        <v>676.7125526339513</v>
       </c>
       <c r="M12" t="n">
-        <v>1011.185054749522</v>
+        <v>1184.66911859048</v>
       </c>
       <c r="N12" t="n">
-        <v>1546.994364450732</v>
+        <v>1720.47842829169</v>
       </c>
       <c r="O12" t="n">
-        <v>2014.935408783255</v>
+        <v>2188.419472624213</v>
       </c>
       <c r="P12" t="n">
-        <v>2371.16628502803</v>
+        <v>2544.650348868987</v>
       </c>
       <c r="Q12" t="n">
-        <v>2559.377995458575</v>
+        <v>2544.650348868987</v>
       </c>
       <c r="R12" t="n">
         <v>2559.377995458575</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1003.287366026812</v>
+        <v>227.6543053282565</v>
       </c>
       <c r="C13" t="n">
-        <v>834.3511830989049</v>
+        <v>227.6543053282565</v>
       </c>
       <c r="D13" t="n">
-        <v>684.2345436865692</v>
+        <v>77.53766591592074</v>
       </c>
       <c r="E13" t="n">
-        <v>536.3214501041761</v>
+        <v>77.53766591592074</v>
       </c>
       <c r="F13" t="n">
-        <v>389.4315026062657</v>
+        <v>77.53766591592074</v>
       </c>
       <c r="G13" t="n">
-        <v>221.933519417454</v>
+        <v>77.53766591592074</v>
       </c>
       <c r="H13" t="n">
-        <v>77.53766591592077</v>
+        <v>77.53766591592074</v>
       </c>
       <c r="I13" t="n">
-        <v>77.53766591592077</v>
+        <v>77.53766591592074</v>
       </c>
       <c r="J13" t="n">
         <v>136.8552218758649</v>
       </c>
       <c r="K13" t="n">
-        <v>364.1690246648146</v>
+        <v>364.1690246648145</v>
       </c>
       <c r="L13" t="n">
-        <v>710.5788654344813</v>
+        <v>710.578865434481</v>
       </c>
       <c r="M13" t="n">
-        <v>1086.20859537694</v>
+        <v>1086.208595376939</v>
       </c>
       <c r="N13" t="n">
-        <v>1458.341306336948</v>
+        <v>1458.341306336947</v>
       </c>
       <c r="O13" t="n">
-        <v>1786.049800818665</v>
+        <v>1786.049800818664</v>
       </c>
       <c r="P13" t="n">
-        <v>2042.940349010723</v>
+        <v>2042.940349010722</v>
       </c>
       <c r="Q13" t="n">
         <v>2137.362968742808</v>
       </c>
       <c r="R13" t="n">
-        <v>2137.362968742808</v>
+        <v>2056.743466925583</v>
       </c>
       <c r="S13" t="n">
-        <v>1984.336026510121</v>
+        <v>1868.627619458879</v>
       </c>
       <c r="T13" t="n">
-        <v>1763.444693944561</v>
+        <v>1647.73628689332</v>
       </c>
       <c r="U13" t="n">
-        <v>1474.353000894012</v>
+        <v>1358.644593842771</v>
       </c>
       <c r="V13" t="n">
-        <v>1474.353000894012</v>
+        <v>1103.960105636884</v>
       </c>
       <c r="W13" t="n">
-        <v>1184.935830857052</v>
+        <v>814.5429355999236</v>
       </c>
       <c r="X13" t="n">
-        <v>1184.935830857052</v>
+        <v>586.5533847019062</v>
       </c>
       <c r="Y13" t="n">
-        <v>1184.935830857052</v>
+        <v>365.7608055583761</v>
       </c>
     </row>
     <row r="14">
@@ -5264,19 +5264,19 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
         <v>852.8523611075807</v>
@@ -5285,10 +5285,10 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
         <v>3640.422291068009</v>
@@ -5303,13 +5303,13 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V14" t="n">
         <v>3820.749612123002</v>
@@ -5349,34 +5349,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L15" t="n">
-        <v>589.1422692637306</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>1186.520756890282</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>1814.118720444889</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O15" t="n">
-        <v>2366.028450684176</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,40 +5410,40 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>781.8178837532264</v>
+        <v>513.853600740071</v>
       </c>
       <c r="C16" t="n">
-        <v>781.8178837532264</v>
+        <v>344.9174178121641</v>
       </c>
       <c r="D16" t="n">
-        <v>631.7012443408906</v>
+        <v>194.8007783998282</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408906</v>
+        <v>194.8007783998253</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429803</v>
+        <v>194.8007783998253</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>194.8007783998253</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782954</v>
       </c>
       <c r="K16" t="n">
         <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.140538179774</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910808</v>
       </c>
       <c r="N16" t="n">
         <v>1665.560112570817</v>
@@ -5452,7 +5452,7 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q16" t="n">
         <v>2446.96308358026</v>
@@ -5476,10 +5476,10 @@
         <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138409</v>
       </c>
       <c r="Y16" t="n">
-        <v>916.2946447138411</v>
+        <v>695.5020655703107</v>
       </c>
     </row>
     <row r="17">
@@ -5495,19 +5495,19 @@
         <v>1948.813509611462</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168603</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I17" t="n">
         <v>95.34095638192616</v>
@@ -5522,7 +5522,7 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
         <v>2950.898526355937</v>
@@ -5540,10 +5540,10 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U17" t="n">
         <v>4151.812499466572</v>
@@ -5555,7 +5555,7 @@
         <v>3467.980956852887</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615996</v>
@@ -5586,34 +5586,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>119.290296770379</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>119.290296770379</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>716.6687843969308</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N18" t="n">
-        <v>1344.266747951538</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190825</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,37 +5647,37 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1016.58045691144</v>
+        <v>513.8536007400713</v>
       </c>
       <c r="C19" t="n">
-        <v>847.6442739835331</v>
+        <v>344.9174178121644</v>
       </c>
       <c r="D19" t="n">
-        <v>697.5276345711974</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E19" t="n">
-        <v>549.6145409888043</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
@@ -5692,31 +5692,31 @@
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2264.108249235165</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U19" t="n">
-        <v>2191.112710026072</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1936.428221820185</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1647.011051783225</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>1419.021500885207</v>
+        <v>916.2946447138409</v>
       </c>
       <c r="Y19" t="n">
-        <v>1198.22892174168</v>
+        <v>695.5020655703111</v>
       </c>
     </row>
     <row r="20">
@@ -5747,22 +5747,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
@@ -5829,28 +5829,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K21" t="n">
-        <v>577.3880777468471</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L21" t="n">
-        <v>1072.713683962606</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M21" t="n">
-        <v>1670.092171589158</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N21" t="n">
-        <v>2001.151557821488</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O21" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>641.8461362382112</v>
+        <v>513.8536007400709</v>
       </c>
       <c r="C22" t="n">
-        <v>472.9099533103043</v>
+        <v>344.917417812164</v>
       </c>
       <c r="D22" t="n">
-        <v>322.7933138979686</v>
+        <v>194.8007783998282</v>
       </c>
       <c r="E22" t="n">
-        <v>322.7933138979686</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5914,7 +5914,7 @@
         <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.140538179774</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
@@ -5926,7 +5926,7 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q22" t="n">
         <v>2446.96308358026</v>
@@ -5944,16 +5944,16 @@
         <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648817</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611856</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138388</v>
+        <v>916.2946447138407</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703087</v>
+        <v>695.5020655703106</v>
       </c>
     </row>
     <row r="23">
@@ -5963,7 +5963,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C23" t="n">
         <v>1948.813509611463</v>
@@ -5981,7 +5981,7 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I23" t="n">
         <v>95.34095638192599</v>
@@ -5990,10 +5990,10 @@
         <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
         <v>2206.558663014779</v>
@@ -6002,7 +6002,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6014,25 +6014,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="24">
@@ -6060,34 +6060,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803937</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516142</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L24" t="n">
-        <v>1074.481071167373</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M24" t="n">
-        <v>1671.859558793925</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="N24" t="n">
-        <v>2299.457522348532</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="O24" t="n">
-        <v>2553.061288060775</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,37 +6121,37 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>727.9786782557278</v>
+        <v>513.853600740071</v>
       </c>
       <c r="C25" t="n">
-        <v>559.0424953278209</v>
+        <v>344.9174178121637</v>
       </c>
       <c r="D25" t="n">
-        <v>408.925855915485</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E25" t="n">
-        <v>261.012762333092</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F25" t="n">
         <v>261.0127623330919</v>
       </c>
       <c r="G25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
@@ -6169,28 +6169,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S25" t="n">
-        <v>2264.108249235164</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2191.586158026164</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1902.510931370362</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1647.826443164475</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1358.409273127515</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>1130.419722229498</v>
+        <v>916.2946447138409</v>
       </c>
       <c r="Y25" t="n">
-        <v>909.6271430859675</v>
+        <v>695.5020655703107</v>
       </c>
     </row>
     <row r="26">
@@ -6200,13 +6200,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
         <v>1204.759558406469</v>
@@ -6218,31 +6218,31 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I26" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
         <v>4562.265728852255</v>
@@ -6257,19 +6257,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="27">
@@ -6312,19 +6312,19 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1671.859558793925</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N27" t="n">
-        <v>2299.457522348532</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O27" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P27" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q27" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1098.667160263527</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>929.7309773356195</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D28" t="n">
-        <v>779.6143379232838</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E28" t="n">
-        <v>631.7012443408906</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429803</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
@@ -6385,7 +6385,7 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L28" t="n">
         <v>826.1405381797742</v>
@@ -6394,40 +6394,40 @@
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570814</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279799</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
-        <v>2327.764848853357</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580257</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.963083580257</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2446.963083580257</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2227.361618603198</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1938.286391947396</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1683.601903741509</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1394.184733704548</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>1319.459739407057</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>1098.667160263527</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6446,16 +6446,16 @@
         <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168597</v>
+        <v>793.7736536168602</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
         <v>95.34095638192599</v>
@@ -6464,7 +6464,7 @@
         <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6482,16 +6482,16 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
         <v>4151.812499466572</v>
@@ -6534,34 +6534,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803937</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516142</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="L30" t="n">
-        <v>1074.481071167373</v>
+        <v>590.9096564684977</v>
       </c>
       <c r="M30" t="n">
-        <v>1671.859558793925</v>
+        <v>1188.28814409505</v>
       </c>
       <c r="N30" t="n">
-        <v>2299.457522348532</v>
+        <v>1815.886107649656</v>
       </c>
       <c r="O30" t="n">
-        <v>2553.061288060775</v>
+        <v>2367.795837888943</v>
       </c>
       <c r="P30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,28 +6595,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>580.8993044876688</v>
+        <v>513.8536007400733</v>
       </c>
       <c r="C31" t="n">
-        <v>411.9631215597619</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D31" t="n">
-        <v>408.9258559154851</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E31" t="n">
-        <v>261.012762333092</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F31" t="n">
-        <v>261.012762333092</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G31" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782957</v>
@@ -6625,46 +6625,46 @@
         <v>435.7419440038342</v>
       </c>
       <c r="L31" t="n">
-        <v>826.140538179774</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M31" t="n">
-        <v>1248.150240910808</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570819</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279804</v>
       </c>
       <c r="P31" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853363</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580263</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832665</v>
       </c>
       <c r="S31" t="n">
-        <v>2264.108249235164</v>
+        <v>2197.062545487569</v>
       </c>
       <c r="T31" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.46108051051</v>
       </c>
       <c r="U31" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854708</v>
       </c>
       <c r="V31" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648821</v>
       </c>
       <c r="W31" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.28419561186</v>
       </c>
       <c r="X31" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138429</v>
       </c>
       <c r="Y31" t="n">
-        <v>762.5477693179085</v>
+        <v>695.502065570313</v>
       </c>
     </row>
     <row r="32">
@@ -6689,10 +6689,10 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
         <v>95.34095638192593</v>
@@ -6780,19 +6780,19 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516142</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L33" t="n">
-        <v>1074.481071167373</v>
+        <v>740.5562989961525</v>
       </c>
       <c r="M33" t="n">
-        <v>1671.859558793925</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="N33" t="n">
-        <v>2001.151557821488</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O33" t="n">
-        <v>2553.061288060775</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P33" t="n">
         <v>2553.061288060775</v>
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>571.6607764188002</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>402.7245934908933</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D34" t="n">
-        <v>402.7245934908933</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E34" t="n">
-        <v>402.7245934908933</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908934</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H34" t="n">
         <v>93.81666304797187</v>
@@ -6859,10 +6859,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
@@ -6880,28 +6880,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2254.869721166296</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2035.268256189237</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U34" t="n">
-        <v>1746.193029533435</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V34" t="n">
-        <v>1491.508541327548</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W34" t="n">
-        <v>1202.091371290587</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X34" t="n">
-        <v>974.1018203925701</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y34" t="n">
-        <v>753.3092412490399</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6932,13 +6932,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6971,13 +6971,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7017,22 +7017,22 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>577.3880777468471</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L36" t="n">
-        <v>1072.713683962606</v>
+        <v>671.2000270096659</v>
       </c>
       <c r="M36" t="n">
-        <v>1670.092171589158</v>
+        <v>1268.578514636218</v>
       </c>
       <c r="N36" t="n">
-        <v>2297.690135143765</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="O36" t="n">
-        <v>2553.061288060775</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P36" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q36" t="n">
         <v>2553.061288060775</v>
@@ -7069,22 +7069,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400711</v>
       </c>
       <c r="C37" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121642</v>
       </c>
       <c r="D37" t="n">
-        <v>344.9174178121643</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E37" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F37" t="n">
-        <v>344.9174178121644</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G37" t="n">
-        <v>177.7213185270444</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H37" t="n">
         <v>93.81666304797187</v>
@@ -7099,10 +7099,10 @@
         <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.140538179774</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M37" t="n">
-        <v>1248.150240910808</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
         <v>1665.560112570817</v>
@@ -7111,7 +7111,7 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
         <v>2446.96308358026</v>
@@ -7132,13 +7132,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138412</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703108</v>
       </c>
     </row>
     <row r="38">
@@ -7169,22 +7169,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
         <v>3640.42229106801</v>
@@ -7248,31 +7248,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516142</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L39" t="n">
-        <v>1074.481071167373</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="M39" t="n">
-        <v>1074.481071167373</v>
+        <v>840.8417932021785</v>
       </c>
       <c r="N39" t="n">
-        <v>1307.627092998424</v>
+        <v>1468.439756756785</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>2020.349486996072</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2443.97263649114</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,34 +7306,34 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400708</v>
+        <v>513.8536007400709</v>
       </c>
       <c r="C40" t="n">
-        <v>344.9174178121639</v>
+        <v>344.917417812164</v>
       </c>
       <c r="D40" t="n">
-        <v>344.9174178121639</v>
+        <v>194.8007783998283</v>
       </c>
       <c r="E40" t="n">
-        <v>344.9174178121639</v>
+        <v>194.8007783998283</v>
       </c>
       <c r="F40" t="n">
-        <v>344.9174178121639</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="G40" t="n">
-        <v>177.7213185270444</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J40" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
         <v>826.1405381797745</v>
@@ -7342,10 +7342,10 @@
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
@@ -7354,7 +7354,7 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832662</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
         <v>2197.062545487567</v>
@@ -7372,10 +7372,10 @@
         <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138406</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703105</v>
+        <v>695.5020655703106</v>
       </c>
     </row>
     <row r="41">
@@ -7391,10 +7391,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
         <v>793.7736536168611</v>
@@ -7406,13 +7406,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7445,13 +7445,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7491,25 +7491,25 @@
         <v>95.58405025273903</v>
       </c>
       <c r="K42" t="n">
-        <v>429.5088224239596</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="L42" t="n">
-        <v>924.8344286397182</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="M42" t="n">
-        <v>1522.21291626627</v>
+        <v>692.9625378792909</v>
       </c>
       <c r="N42" t="n">
-        <v>2149.810879820877</v>
+        <v>1320.560501433898</v>
       </c>
       <c r="O42" t="n">
-        <v>2553.061288060775</v>
+        <v>1872.470231673185</v>
       </c>
       <c r="P42" t="n">
-        <v>2553.061288060775</v>
+        <v>2296.093381168253</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>571.6607764188002</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C43" t="n">
-        <v>402.7245934908933</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D43" t="n">
-        <v>402.7245934908933</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E43" t="n">
-        <v>402.7245934908933</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908934</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
         <v>93.81666304797187</v>
@@ -7570,10 +7570,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
@@ -7585,34 +7585,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2254.869721166296</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2035.268256189237</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1746.193029533435</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1491.508541327548</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1202.091371290587</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X43" t="n">
-        <v>974.1018203925701</v>
+        <v>916.2946447138413</v>
       </c>
       <c r="Y43" t="n">
-        <v>753.3092412490399</v>
+        <v>695.5020655703113</v>
       </c>
     </row>
     <row r="44">
@@ -7628,28 +7628,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7667,7 +7667,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R44" t="n">
         <v>4690.833152398593</v>
@@ -7722,31 +7722,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L45" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M45" t="n">
-        <v>1671.859558793925</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N45" t="n">
-        <v>2299.457522348532</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O45" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P45" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,25 +7780,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>653.7474797708871</v>
+        <v>513.853600740071</v>
       </c>
       <c r="C46" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121641</v>
       </c>
       <c r="D46" t="n">
-        <v>484.8112968429803</v>
+        <v>194.8007783998282</v>
       </c>
       <c r="E46" t="n">
-        <v>484.8112968429803</v>
+        <v>194.8007783998282</v>
       </c>
       <c r="F46" t="n">
-        <v>484.8112968429803</v>
+        <v>194.8007783998283</v>
       </c>
       <c r="G46" t="n">
-        <v>317.61519755786</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7807,10 +7807,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
@@ -7828,28 +7828,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S46" t="n">
-        <v>2336.956424518383</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2117.354959541324</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1828.279732885522</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1573.595244679635</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1284.178074642674</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>1056.188523744657</v>
+        <v>916.2946447138409</v>
       </c>
       <c r="Y46" t="n">
-        <v>835.3959446011269</v>
+        <v>695.5020655703107</v>
       </c>
     </row>
   </sheetData>
@@ -23258,7 +23258,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -23267,16 +23267,16 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>289.9775033393747</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>24.14662204184549</v>
+        <v>24.14662204184555</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,13 +23306,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>98.88510599615211</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>160.0859277624448</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -23324,7 +23324,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>309.5751711349653</v>
       </c>
     </row>
     <row r="12">
@@ -23413,25 +23413,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>43.10654495411873</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.8230033569236</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>142.9518949665179</v>
       </c>
       <c r="I13" t="n">
         <v>90.25352389927373</v>
@@ -23461,10 +23461,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>79.81330679905236</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>34.73801618167652</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23473,16 +23473,16 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23650,10 +23650,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>46.69998683092876</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -23662,16 +23662,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>40.32043864788896</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23719,7 +23719,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23735,7 +23735,7 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>9.285372470912988e-13</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -23893,19 +23893,19 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>65.54986409393057</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
         <v>81.26583631856553</v>
@@ -23935,16 +23935,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>213.9188905722423</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -24124,7 +24124,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>126.7126101431607</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -24133,10 +24133,10 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>46.45968844823138</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
@@ -24145,7 +24145,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24367,10 +24367,10 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>65.54986409393129</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -24409,13 +24409,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>145.6085800303784</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24598,7 +24598,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -24607,19 +24607,19 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>65.54986409393055</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,10 +24646,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24664,7 +24664,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>151.7319110345204</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24838,10 +24838,10 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>46.459688448229</v>
       </c>
       <c r="D31" t="n">
-        <v>145.6085800303783</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -24850,7 +24850,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -25078,19 +25078,19 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>46.45968844823108</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
         <v>81.26583631856553</v>
@@ -25120,7 +25120,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>57.22910392194214</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25315,19 +25315,19 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>46.45968844823112</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>57.22910392194217</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
         <v>81.26583631856553</v>
@@ -25552,19 +25552,19 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>45.44677382459339</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>57.2291039219421</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
         <v>81.26583631856553</v>
@@ -25786,22 +25786,22 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>46.45968844823057</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
         <v>81.26583631856553</v>
@@ -25831,7 +25831,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>57.22910392194265</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -26026,7 +26026,7 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -26035,13 +26035,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>65.54986409393057</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,10 +26068,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>72.11969353038592</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26311,7 +26311,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>389994.8406855344</v>
+        <v>389994.8406855342</v>
       </c>
       <c r="C2" t="n">
         <v>389994.8406855346</v>
@@ -26323,37 +26323,37 @@
         <v>347979.891030338</v>
       </c>
       <c r="F2" t="n">
+        <v>383394.6348527528</v>
+      </c>
+      <c r="G2" t="n">
+        <v>383394.6348527528</v>
+      </c>
+      <c r="H2" t="n">
         <v>383394.634852753</v>
       </c>
-      <c r="G2" t="n">
-        <v>383394.634852753</v>
-      </c>
-      <c r="H2" t="n">
-        <v>383394.6348527529</v>
-      </c>
       <c r="I2" t="n">
-        <v>383394.634852753</v>
+        <v>383394.6348527531</v>
       </c>
       <c r="J2" t="n">
         <v>383394.6348527529</v>
       </c>
       <c r="K2" t="n">
-        <v>383394.634852753</v>
+        <v>383394.6348527529</v>
       </c>
       <c r="L2" t="n">
-        <v>383394.634852753</v>
+        <v>383394.6348527531</v>
       </c>
       <c r="M2" t="n">
-        <v>383394.634852753</v>
+        <v>383394.6348527529</v>
       </c>
       <c r="N2" t="n">
         <v>383394.634852753</v>
       </c>
       <c r="O2" t="n">
-        <v>383394.634852753</v>
+        <v>383394.6348527528</v>
       </c>
       <c r="P2" t="n">
-        <v>383394.634852753</v>
+        <v>383394.6348527529</v>
       </c>
     </row>
     <row r="3">
@@ -26363,19 +26363,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>591356.9025208453</v>
+        <v>591356.9025208458</v>
       </c>
       <c r="C3" t="n">
-        <v>392510.2442861777</v>
+        <v>392510.2442861772</v>
       </c>
       <c r="D3" t="n">
-        <v>12262.85603264343</v>
+        <v>12262.85603264325</v>
       </c>
       <c r="E3" t="n">
-        <v>395943.9567674495</v>
+        <v>395943.9567674494</v>
       </c>
       <c r="F3" t="n">
-        <v>189308.2687704284</v>
+        <v>189308.2687704286</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26387,19 +26387,19 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>49064.94472854459</v>
+        <v>49064.94472854474</v>
       </c>
       <c r="K3" t="n">
-        <v>91259.95686487771</v>
+        <v>91259.95686487768</v>
       </c>
       <c r="L3" t="n">
-        <v>3074.447349950016</v>
+        <v>3074.447349949967</v>
       </c>
       <c r="M3" t="n">
-        <v>103409.2608931118</v>
+        <v>103409.2608931117</v>
       </c>
       <c r="N3" t="n">
-        <v>49839.5741320235</v>
+        <v>49839.57413202352</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26415,7 +26415,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>278536.5648341299</v>
+        <v>278536.5648341298</v>
       </c>
       <c r="C4" t="n">
         <v>174202.9900888977</v>
@@ -26427,37 +26427,37 @@
         <v>15331.22144723313</v>
       </c>
       <c r="F4" t="n">
-        <v>15436.64000687967</v>
+        <v>15436.64000687966</v>
       </c>
       <c r="G4" t="n">
         <v>15436.64000687967</v>
       </c>
       <c r="H4" t="n">
-        <v>15436.64000687967</v>
+        <v>15436.64000687966</v>
       </c>
       <c r="I4" t="n">
-        <v>15436.64000687967</v>
+        <v>15436.64000687971</v>
       </c>
       <c r="J4" t="n">
         <v>15436.64000687966</v>
       </c>
       <c r="K4" t="n">
-        <v>15436.64000687973</v>
+        <v>15436.64000687965</v>
       </c>
       <c r="L4" t="n">
+        <v>15436.64000687968</v>
+      </c>
+      <c r="M4" t="n">
         <v>15436.64000687967</v>
-      </c>
-      <c r="M4" t="n">
-        <v>15436.64000687965</v>
       </c>
       <c r="N4" t="n">
         <v>15436.64000687968</v>
       </c>
       <c r="O4" t="n">
+        <v>15436.64000687969</v>
+      </c>
+      <c r="P4" t="n">
         <v>15436.64000687967</v>
-      </c>
-      <c r="P4" t="n">
-        <v>15436.64000687969</v>
       </c>
     </row>
     <row r="5">
@@ -26467,7 +26467,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>56985.80041161356</v>
+        <v>56985.80041161359</v>
       </c>
       <c r="C5" t="n">
         <v>85199.08185587224</v>
@@ -26476,7 +26476,7 @@
         <v>86153.75444404173</v>
       </c>
       <c r="E5" t="n">
-        <v>85137.48506738571</v>
+        <v>85137.48506738569</v>
       </c>
       <c r="F5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-536884.4270810544</v>
+        <v>-536884.4270810549</v>
       </c>
       <c r="C6" t="n">
-        <v>-261917.475545413</v>
+        <v>-261917.4755454125</v>
       </c>
       <c r="D6" t="n">
-        <v>120760.3474481078</v>
+        <v>120760.347448108</v>
       </c>
       <c r="E6" t="n">
-        <v>-148432.7722517303</v>
+        <v>-148653.903565705</v>
       </c>
       <c r="F6" t="n">
-        <v>77527.19625153784</v>
+        <v>77492.45832610178</v>
       </c>
       <c r="G6" t="n">
-        <v>266835.4650219661</v>
+        <v>266800.7270965303</v>
       </c>
       <c r="H6" t="n">
-        <v>266835.4650219661</v>
+        <v>266800.7270965305</v>
       </c>
       <c r="I6" t="n">
-        <v>266835.4650219661</v>
+        <v>266800.7270965306</v>
       </c>
       <c r="J6" t="n">
-        <v>217770.5202934215</v>
+        <v>217735.7823679857</v>
       </c>
       <c r="K6" t="n">
-        <v>175575.5081570884</v>
+        <v>175540.7702316528</v>
       </c>
       <c r="L6" t="n">
-        <v>263761.0176720162</v>
+        <v>263726.2797465806</v>
       </c>
       <c r="M6" t="n">
-        <v>163426.2041288545</v>
+        <v>163391.4662034187</v>
       </c>
       <c r="N6" t="n">
-        <v>216995.8908899426</v>
+        <v>216961.1529645069</v>
       </c>
       <c r="O6" t="n">
-        <v>266835.4650219662</v>
+        <v>266800.7270965303</v>
       </c>
       <c r="P6" t="n">
-        <v>266835.4650219661</v>
+        <v>266800.7270965304</v>
       </c>
     </row>
   </sheetData>
@@ -26735,13 +26735,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548.4699409129045</v>
+        <v>548.4699409129049</v>
       </c>
       <c r="C3" t="n">
         <v>853.7106645376841</v>
       </c>
       <c r="D3" t="n">
-        <v>863.6234498573219</v>
+        <v>863.6234498573217</v>
       </c>
       <c r="E3" t="n">
         <v>1202.241237214951</v>
@@ -26787,7 +26787,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187.5255871663198</v>
+        <v>187.5255871663202</v>
       </c>
       <c r="C4" t="n">
         <v>542.1149567261632</v>
@@ -26796,7 +26796,7 @@
         <v>554.2625532426334</v>
       </c>
       <c r="E4" t="n">
-        <v>969.2208239490096</v>
+        <v>969.2208239490093</v>
       </c>
       <c r="F4" t="n">
         <v>1172.708288099648</v>
@@ -26957,19 +26957,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548.4699409129045</v>
+        <v>548.4699409129049</v>
       </c>
       <c r="C3" t="n">
-        <v>305.2407236247797</v>
+        <v>305.2407236247792</v>
       </c>
       <c r="D3" t="n">
-        <v>9.912785319637806</v>
+        <v>9.912785319637578</v>
       </c>
       <c r="E3" t="n">
         <v>338.6177873576289</v>
       </c>
       <c r="F3" t="n">
-        <v>165.7342631267229</v>
+        <v>165.7342631267231</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27009,19 +27009,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187.5255871663198</v>
+        <v>187.5255871663202</v>
       </c>
       <c r="C4" t="n">
-        <v>354.5893695598434</v>
+        <v>354.589369559843</v>
       </c>
       <c r="D4" t="n">
-        <v>12.1475965164702</v>
+        <v>12.14759651647023</v>
       </c>
       <c r="E4" t="n">
-        <v>414.9582707063762</v>
+        <v>414.9582707063758</v>
       </c>
       <c r="F4" t="n">
-        <v>203.4874641506387</v>
+        <v>203.4874641506389</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27033,19 +27033,19 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>187.5255871663198</v>
+        <v>187.5255871663204</v>
       </c>
       <c r="K4" t="n">
-        <v>354.5893695598431</v>
+        <v>354.589369559843</v>
       </c>
       <c r="L4" t="n">
-        <v>12.14759651647042</v>
+        <v>12.14759651647023</v>
       </c>
       <c r="M4" t="n">
-        <v>414.9582707063762</v>
+        <v>414.9582707063758</v>
       </c>
       <c r="N4" t="n">
-        <v>203.4874641506387</v>
+        <v>203.4874641506389</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27255,19 +27255,19 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>187.5255871663198</v>
+        <v>187.5255871663202</v>
       </c>
       <c r="K4" t="n">
-        <v>354.5893695598434</v>
+        <v>354.589369559843</v>
       </c>
       <c r="L4" t="n">
-        <v>12.1475965164702</v>
+        <v>12.14759651647023</v>
       </c>
       <c r="M4" t="n">
-        <v>414.9582707063762</v>
+        <v>414.9582707063758</v>
       </c>
       <c r="N4" t="n">
-        <v>203.4874641506387</v>
+        <v>203.4874641506389</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27376,25 +27376,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>195.2082544971608</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>177.7473046046877</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>194.4047829059416</v>
       </c>
       <c r="F2" t="n">
-        <v>219.3504585753916</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>316.8938261062223</v>
+        <v>129.3682389399021</v>
       </c>
       <c r="I2" t="n">
         <v>125.4713171199747</v>
@@ -27424,25 +27424,25 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>77.08171901666381</v>
+        <v>77.0817190166637</v>
       </c>
       <c r="S2" t="n">
         <v>158.7758131900531</v>
       </c>
       <c r="T2" t="n">
-        <v>61.36917711017034</v>
+        <v>213.4438810562068</v>
       </c>
       <c r="U2" t="n">
         <v>251.1692605650303</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>140.2266713038147</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>224.5324424741437</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27455,19 +27455,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>111.0503695630407</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
         <v>136.1637893657753</v>
@@ -27476,10 +27476,10 @@
         <v>100.8417573507397</v>
       </c>
       <c r="I3" t="n">
-        <v>58.9045589040915</v>
+        <v>58.90455890409147</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>15.37922103265832</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27503,25 +27503,25 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>72.43289562846321</v>
+        <v>72.43289562846314</v>
       </c>
       <c r="S3" t="n">
-        <v>149.7702446909496</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>120.7244657293491</v>
+        <v>195.4095977920012</v>
       </c>
       <c r="U3" t="n">
         <v>225.8637684100909</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>45.27499998310506</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>64.1693959945994</v>
       </c>
       <c r="X3" t="n">
-        <v>18.24739803715767</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
         <v>205.6826957773044</v>
@@ -27552,16 +27552,16 @@
         <v>167.0019352027142</v>
       </c>
       <c r="H4" t="n">
-        <v>153.4336708318196</v>
+        <v>153.4336708318195</v>
       </c>
       <c r="I4" t="n">
-        <v>125.7072197708667</v>
+        <v>125.7072197708666</v>
       </c>
       <c r="J4" t="n">
-        <v>57.06999962825419</v>
+        <v>57.06999962825412</v>
       </c>
       <c r="K4" t="n">
-        <v>14.10430989402855</v>
+        <v>14.10430989402845</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27576,10 +27576,10 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>18.10760906709389</v>
+        <v>18.10760906709379</v>
       </c>
       <c r="Q4" t="n">
-        <v>68.68604055159727</v>
+        <v>68.6860405515972</v>
       </c>
       <c r="R4" t="n">
         <v>132.8223696106904</v>
@@ -27591,10 +27591,10 @@
         <v>223.7196734901001</v>
       </c>
       <c r="U4" t="n">
-        <v>234.049135239016</v>
+        <v>286.2650814934503</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>199.9216970693932</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -27613,28 +27613,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>26.70764993131974</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>113.1327722855684</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>78.16360657708299</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,19 +27664,19 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>130.8133087092504</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>208.0722578696039</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.0710926941158</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -27698,16 +27698,16 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>135.5072338470353</v>
       </c>
       <c r="H6" t="n">
         <v>94.50081326185514</v>
@@ -27746,22 +27746,22 @@
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>192.7632183107638</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>84.09892026570466</v>
       </c>
       <c r="W6" t="n">
-        <v>16.73321033738713</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -27780,22 +27780,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>30.02332674476006</v>
+        <v>166.4515011109318</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>148.5398113612452</v>
       </c>
       <c r="I7" t="n">
         <v>109.1541654470835</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>18.15430933923925</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27822,13 +27822,13 @@
         <v>108.0728512656386</v>
       </c>
       <c r="S7" t="n">
-        <v>197.1876907596159</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>221.3678187343026</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2350578157167</v>
+        <v>33.86649086210718</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -27853,13 +27853,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>177.2941398230462</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -27871,7 +27871,7 @@
         <v>303.9186869163649</v>
       </c>
       <c r="I8" t="n">
-        <v>76.6272742915138</v>
+        <v>76.62727429151386</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,13 +27901,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>129.9052178731851</v>
+        <v>129.9052178731852</v>
       </c>
       <c r="T8" t="n">
-        <v>207.8978127731749</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.0679046626562</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -27916,10 +27916,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>67.09447618063797</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -27929,28 +27929,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
         <v>135.4859120069138</v>
       </c>
       <c r="H9" t="n">
-        <v>94.29488917436606</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>35.56536036433982</v>
+        <v>35.56536036433985</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27986,16 +27986,16 @@
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>194.2553360516654</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>129.5046447027152</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
         <v>0</v>
@@ -28011,13 +28011,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -28032,7 +28032,7 @@
         <v>108.6165999743399</v>
       </c>
       <c r="J10" t="n">
-        <v>13.47088738370542</v>
+        <v>16.89051046332415</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,7 +28053,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>21.09786070099028</v>
       </c>
       <c r="R10" t="n">
         <v>107.2691031313611</v>
@@ -28065,10 +28065,10 @@
         <v>221.2914415359382</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2340827876525</v>
+        <v>51.55798556746242</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -28342,7 +28342,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>2.570807888177247e-13</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -28384,7 +28384,7 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>8.526512829121202e-13</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -28491,7 +28491,7 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>-2.827960088325199e-12</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -28618,7 +28618,7 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>-1.261559297503064e-13</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -28788,7 +28788,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>2.444267011014745e-12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -28867,7 +28867,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>7.369649279441441e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -29016,7 +29016,7 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>-1.611619881836943e-13</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -29038,7 +29038,7 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>9.003997547551989e-13</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -29281,7 +29281,7 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>1.038710257849393e-12</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
@@ -29466,7 +29466,7 @@
         <v>0</v>
       </c>
       <c r="N28" t="n">
-        <v>-1.419205844524257e-12</v>
+        <v>0</v>
       </c>
       <c r="O28" t="n">
         <v>0</v>
@@ -29524,7 +29524,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>1.4210854715202e-12</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -29566,7 +29566,7 @@
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>-2.895907565613612e-13</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -29703,7 +29703,7 @@
         <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>0</v>
+        <v>2.160049916710705e-12</v>
       </c>
       <c r="O31" t="n">
         <v>0</v>
@@ -29746,7 +29746,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -30277,10 +30277,10 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>2.557953848736361e-13</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-13</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
@@ -30469,7 +30469,7 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -30709,7 +30709,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -31039,49 +31039,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.204904285077001</v>
+        <v>2.204904285077003</v>
       </c>
       <c r="H2" t="n">
-        <v>22.58097600954484</v>
+        <v>22.58097600954486</v>
       </c>
       <c r="I2" t="n">
-        <v>85.00457245043117</v>
+        <v>85.00457245043124</v>
       </c>
       <c r="J2" t="n">
-        <v>187.1384950655543</v>
+        <v>187.1384950655545</v>
       </c>
       <c r="K2" t="n">
-        <v>280.4720934528638</v>
+        <v>280.472093452864</v>
       </c>
       <c r="L2" t="n">
-        <v>347.9504329672891</v>
+        <v>347.9504329672894</v>
       </c>
       <c r="M2" t="n">
-        <v>387.1618995470272</v>
+        <v>387.1618995470276</v>
       </c>
       <c r="N2" t="n">
-        <v>393.4265838470023</v>
+        <v>393.4265838470026</v>
       </c>
       <c r="O2" t="n">
-        <v>371.5015668622679</v>
+        <v>371.5015668622682</v>
       </c>
       <c r="P2" t="n">
-        <v>317.0679923244294</v>
+        <v>317.0679923244296</v>
       </c>
       <c r="Q2" t="n">
-        <v>238.1048576151092</v>
+        <v>238.1048576151094</v>
       </c>
       <c r="R2" t="n">
-        <v>138.5038187974683</v>
+        <v>138.5038187974684</v>
       </c>
       <c r="S2" t="n">
-        <v>50.24425639619221</v>
+        <v>50.24425639619226</v>
       </c>
       <c r="T2" t="n">
-        <v>9.651968507924577</v>
+        <v>9.651968507924586</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1763923428061601</v>
+        <v>0.1763923428061602</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31118,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.179727797435304</v>
+        <v>1.179727797435305</v>
       </c>
       <c r="H3" t="n">
-        <v>11.39368688575675</v>
+        <v>11.39368688575676</v>
       </c>
       <c r="I3" t="n">
-        <v>40.6178210959085</v>
+        <v>40.61782109590853</v>
       </c>
       <c r="J3" t="n">
-        <v>111.4584056340083</v>
+        <v>111.4584056340084</v>
       </c>
       <c r="K3" t="n">
-        <v>190.5001680621736</v>
+        <v>190.5001680621738</v>
       </c>
       <c r="L3" t="n">
-        <v>256.1509851405032</v>
+        <v>256.1509851405034</v>
       </c>
       <c r="M3" t="n">
-        <v>298.9161177975329</v>
+        <v>298.9161177975332</v>
       </c>
       <c r="N3" t="n">
-        <v>306.8275379829653</v>
+        <v>306.8275379829656</v>
       </c>
       <c r="O3" t="n">
-        <v>280.6872536292673</v>
+        <v>280.6872536292675</v>
       </c>
       <c r="P3" t="n">
-        <v>225.2762668628872</v>
+        <v>225.2762668628873</v>
       </c>
       <c r="Q3" t="n">
-        <v>150.5912184936714</v>
+        <v>150.5912184936716</v>
       </c>
       <c r="R3" t="n">
-        <v>73.24660833550074</v>
+        <v>73.24660833550081</v>
       </c>
       <c r="S3" t="n">
-        <v>21.9129264128882</v>
+        <v>21.91292641288821</v>
       </c>
       <c r="T3" t="n">
-        <v>4.755130902820368</v>
+        <v>4.755130902820373</v>
       </c>
       <c r="U3" t="n">
-        <v>0.07761367088390161</v>
+        <v>0.07761367088390167</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31197,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.9890441557445817</v>
+        <v>0.9890441557445825</v>
       </c>
       <c r="H4" t="n">
-        <v>8.793501675620014</v>
+        <v>8.793501675620021</v>
       </c>
       <c r="I4" t="n">
-        <v>29.74325515639161</v>
+        <v>29.74325515639164</v>
       </c>
       <c r="J4" t="n">
-        <v>69.92542181114192</v>
+        <v>69.92542181114199</v>
       </c>
       <c r="K4" t="n">
-        <v>114.9089482765068</v>
+        <v>114.9089482765069</v>
       </c>
       <c r="L4" t="n">
-        <v>147.043892027699</v>
+        <v>147.0438920276991</v>
       </c>
       <c r="M4" t="n">
-        <v>155.0371670682165</v>
+        <v>155.0371670682167</v>
       </c>
       <c r="N4" t="n">
-        <v>151.3507297604414</v>
+        <v>151.3507297604415</v>
       </c>
       <c r="O4" t="n">
-        <v>139.7968957592433</v>
+        <v>139.7968957592434</v>
       </c>
       <c r="P4" t="n">
-        <v>119.6203949820537</v>
+        <v>119.6203949820538</v>
       </c>
       <c r="Q4" t="n">
-        <v>82.81896107784857</v>
+        <v>82.81896107784864</v>
       </c>
       <c r="R4" t="n">
-        <v>44.47102176647909</v>
+        <v>44.47102176647913</v>
       </c>
       <c r="S4" t="n">
-        <v>17.23634224147602</v>
+        <v>17.23634224147604</v>
       </c>
       <c r="T4" t="n">
-        <v>4.225915938181394</v>
+        <v>4.225915938181397</v>
       </c>
       <c r="U4" t="n">
-        <v>0.05394786304061361</v>
+        <v>0.05394786304061366</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.47185306475305</v>
+        <v>3.471853064753049</v>
       </c>
       <c r="H8" t="n">
-        <v>35.55611519940219</v>
+        <v>35.55611519940218</v>
       </c>
       <c r="I8" t="n">
         <v>133.8486152788921</v>
       </c>
       <c r="J8" t="n">
-        <v>294.6691890545845</v>
+        <v>294.6691890545844</v>
       </c>
       <c r="K8" t="n">
-        <v>441.6327292855812</v>
+        <v>441.6327292855811</v>
       </c>
       <c r="L8" t="n">
-        <v>547.8844525160175</v>
+        <v>547.8844525160173</v>
       </c>
       <c r="M8" t="n">
-        <v>609.6270194563195</v>
+        <v>609.6270194563193</v>
       </c>
       <c r="N8" t="n">
-        <v>619.4914219765492</v>
+        <v>619.491421976549</v>
       </c>
       <c r="O8" t="n">
-        <v>584.9681830639109</v>
+        <v>584.9681830639108</v>
       </c>
       <c r="P8" t="n">
-        <v>499.2568105278199</v>
+        <v>499.2568105278198</v>
       </c>
       <c r="Q8" t="n">
-        <v>374.9210726463512</v>
+        <v>374.9210726463511</v>
       </c>
       <c r="R8" t="n">
-        <v>218.088790078794</v>
+        <v>218.0887900787939</v>
       </c>
       <c r="S8" t="n">
-        <v>79.11485171306022</v>
+        <v>79.11485171306019</v>
       </c>
       <c r="T8" t="n">
-        <v>15.19803679095649</v>
+        <v>15.19803679095648</v>
       </c>
       <c r="U8" t="n">
-        <v>0.277748245180244</v>
+        <v>0.2777482451802439</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31595,43 +31595,43 @@
         <v>1.857605156296881</v>
       </c>
       <c r="H9" t="n">
-        <v>17.94055506213041</v>
+        <v>17.9405550621304</v>
       </c>
       <c r="I9" t="n">
-        <v>63.95701963566017</v>
+        <v>63.95701963566015</v>
       </c>
       <c r="J9" t="n">
         <v>175.5029503148733</v>
       </c>
       <c r="K9" t="n">
-        <v>299.9624957867644</v>
+        <v>299.9624957867643</v>
       </c>
       <c r="L9" t="n">
-        <v>403.3365932564786</v>
+        <v>403.3365932564785</v>
       </c>
       <c r="M9" t="n">
-        <v>470.6747801722404</v>
+        <v>470.6747801722403</v>
       </c>
       <c r="N9" t="n">
-        <v>483.1321410668805</v>
+        <v>483.1321410668804</v>
       </c>
       <c r="O9" t="n">
-        <v>441.9715215510391</v>
+        <v>441.971521551039</v>
       </c>
       <c r="P9" t="n">
-        <v>354.7211109423404</v>
+        <v>354.7211109423403</v>
       </c>
       <c r="Q9" t="n">
         <v>237.1216687230896</v>
       </c>
       <c r="R9" t="n">
-        <v>115.3344675111345</v>
+        <v>115.3344675111344</v>
       </c>
       <c r="S9" t="n">
         <v>34.5042010391109</v>
       </c>
       <c r="T9" t="n">
-        <v>7.487452362442251</v>
+        <v>7.487452362442249</v>
       </c>
       <c r="U9" t="n">
         <v>0.1222108655458475</v>
@@ -31671,13 +31671,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.557353762037794</v>
+        <v>1.557353762037793</v>
       </c>
       <c r="H10" t="n">
         <v>13.8462907206633</v>
       </c>
       <c r="I10" t="n">
-        <v>46.83387495291839</v>
+        <v>46.83387495291837</v>
       </c>
       <c r="J10" t="n">
         <v>110.104910976072</v>
@@ -31692,10 +31692,10 @@
         <v>244.1222810801606</v>
       </c>
       <c r="N10" t="n">
-        <v>238.3175988762018</v>
+        <v>238.3175988762017</v>
       </c>
       <c r="O10" t="n">
-        <v>220.1248753833057</v>
+        <v>220.1248753833056</v>
       </c>
       <c r="P10" t="n">
         <v>188.3548586377345</v>
@@ -31704,16 +31704,16 @@
         <v>130.4071409284556</v>
       </c>
       <c r="R10" t="n">
-        <v>70.02428824580841</v>
+        <v>70.02428824580839</v>
       </c>
       <c r="S10" t="n">
-        <v>27.14042874387681</v>
+        <v>27.1404287438768</v>
       </c>
       <c r="T10" t="n">
-        <v>6.654147892343298</v>
+        <v>6.654147892343296</v>
       </c>
       <c r="U10" t="n">
-        <v>0.08494656883842519</v>
+        <v>0.08494656883842518</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,46 +31750,46 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.833130601869145</v>
+        <v>4.833130601869144</v>
       </c>
       <c r="H11" t="n">
-        <v>49.4972987763924</v>
+        <v>49.49729877639239</v>
       </c>
       <c r="I11" t="n">
         <v>186.3292675285604</v>
       </c>
       <c r="J11" t="n">
-        <v>410.2059184203918</v>
+        <v>410.2059184203917</v>
       </c>
       <c r="K11" t="n">
-        <v>614.7923367975128</v>
+        <v>614.7923367975127</v>
       </c>
       <c r="L11" t="n">
-        <v>762.7042574544658</v>
+        <v>762.7042574544657</v>
       </c>
       <c r="M11" t="n">
-        <v>848.6554437954562</v>
+        <v>848.655443795456</v>
       </c>
       <c r="N11" t="n">
-        <v>862.387576118017</v>
+        <v>862.3875761180168</v>
       </c>
       <c r="O11" t="n">
-        <v>814.3281336956807</v>
+        <v>814.3281336956804</v>
       </c>
       <c r="P11" t="n">
-        <v>695.010221962036</v>
+        <v>695.0102219620359</v>
       </c>
       <c r="Q11" t="n">
-        <v>521.923732282597</v>
+        <v>521.9237322825969</v>
       </c>
       <c r="R11" t="n">
-        <v>303.599140169663</v>
+        <v>303.5991401696629</v>
       </c>
       <c r="S11" t="n">
-        <v>110.1349635900933</v>
+        <v>110.1349635900932</v>
       </c>
       <c r="T11" t="n">
-        <v>21.1570292096822</v>
+        <v>21.15702920968219</v>
       </c>
       <c r="U11" t="n">
         <v>0.3866504481495315</v>
@@ -31829,43 +31829,43 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.585952849858574</v>
+        <v>2.585952849858573</v>
       </c>
       <c r="H12" t="n">
-        <v>24.97486041837097</v>
+        <v>24.97486041837096</v>
       </c>
       <c r="I12" t="n">
-        <v>89.03390294469213</v>
+        <v>89.03390294469212</v>
       </c>
       <c r="J12" t="n">
-        <v>244.3158348193138</v>
+        <v>244.3158348193137</v>
       </c>
       <c r="K12" t="n">
-        <v>417.5746757598382</v>
+        <v>417.5746757598381</v>
       </c>
       <c r="L12" t="n">
-        <v>171.3336650206092</v>
+        <v>346.570093142789</v>
       </c>
       <c r="M12" t="n">
-        <v>655.2214742821482</v>
+        <v>655.2214742821481</v>
       </c>
       <c r="N12" t="n">
-        <v>672.5632370340506</v>
+        <v>672.5632370340505</v>
       </c>
       <c r="O12" t="n">
-        <v>615.2639659924475</v>
+        <v>615.2639659924474</v>
       </c>
       <c r="P12" t="n">
-        <v>493.8035753383447</v>
+        <v>493.8035753383446</v>
       </c>
       <c r="Q12" t="n">
-        <v>330.0946129047541</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>160.5559146605174</v>
       </c>
       <c r="S12" t="n">
-        <v>48.03293999627655</v>
+        <v>48.03293999627653</v>
       </c>
       <c r="T12" t="n">
         <v>10.42320468868433</v>
@@ -31926,10 +31926,10 @@
         <v>322.3189048100542</v>
       </c>
       <c r="M13" t="n">
-        <v>339.8400926770065</v>
+        <v>339.8400926770064</v>
       </c>
       <c r="N13" t="n">
-        <v>331.759454853103</v>
+        <v>331.7594548531029</v>
       </c>
       <c r="O13" t="n">
         <v>306.4335533806239</v>
@@ -31938,16 +31938,16 @@
         <v>262.2068429493065</v>
       </c>
       <c r="Q13" t="n">
-        <v>181.5384268194576</v>
+        <v>181.5384268194575</v>
       </c>
       <c r="R13" t="n">
-        <v>97.48008457811713</v>
+        <v>97.48008457811711</v>
       </c>
       <c r="S13" t="n">
         <v>37.7819090449354</v>
       </c>
       <c r="T13" t="n">
-        <v>9.263170188377487</v>
+        <v>9.263170188377485</v>
       </c>
       <c r="U13" t="n">
         <v>0.1182532364473723</v>
@@ -32072,13 +32072,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
         <v>638.8832749473072</v>
@@ -32087,19 +32087,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>191.332301678856</v>
       </c>
       <c r="O15" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>322.8964653704906</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
         <v>54.65449286742438</v>
@@ -32312,13 +32312,13 @@
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>163.5723821283055</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
         <v>745.5466476862121</v>
@@ -32327,16 +32327,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>360.9226811202611</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32549,10 +32549,10 @@
         <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
         <v>638.8832749473072</v>
@@ -32561,19 +32561,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>465.7451325200306</v>
+        <v>253.6713445157999</v>
       </c>
       <c r="O21" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32786,7 +32786,7 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
         <v>475.1391886422585</v>
@@ -32795,22 +32795,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>753.6188077738268</v>
       </c>
       <c r="O24" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -33032,22 +33032,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>366.8427442359106</v>
       </c>
       <c r="O27" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33260,10 +33260,10 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
         <v>638.8832749473072</v>
@@ -33275,16 +33275,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>284.1014732918236</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33500,22 +33500,22 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>353.6230700590495</v>
       </c>
       <c r="N33" t="n">
-        <v>463.9598929192557</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
@@ -33737,10 +33737,10 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>570.6116741576916</v>
       </c>
       <c r="M36" t="n">
         <v>745.5466476862121</v>
@@ -33749,13 +33749,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>400.5469039565762</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
         <v>145.679503963964</v>
@@ -33968,22 +33968,22 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M39" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>366.8427442359106</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
         <v>700.0808204437243</v>
@@ -33992,10 +33992,10 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>250.1723312270667</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34211,10 +34211,10 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M42" t="n">
         <v>745.5466476862121</v>
@@ -34223,16 +34223,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>549.9198891312103</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>362.5355639238086</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34442,7 +34442,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
@@ -34454,22 +34454,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>368.6279838366855</v>
       </c>
       <c r="O45" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34696,28 +34696,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>6.092590538868023</v>
+        <v>6.092590538868166</v>
       </c>
       <c r="K2" t="n">
-        <v>60.38224240788327</v>
+        <v>60.3822424078835</v>
       </c>
       <c r="L2" t="n">
-        <v>112.1840179973019</v>
+        <v>112.1840179973022</v>
       </c>
       <c r="M2" t="n">
-        <v>156.8156663197545</v>
+        <v>156.8156663197549</v>
       </c>
       <c r="N2" t="n">
-        <v>164.0135202504114</v>
+        <v>164.0135202504117</v>
       </c>
       <c r="O2" t="n">
-        <v>141.4033554405811</v>
+        <v>141.4033554405815</v>
       </c>
       <c r="P2" t="n">
-        <v>85.83499656915984</v>
+        <v>85.83499656916007</v>
       </c>
       <c r="Q2" t="n">
-        <v>15.7991677406597</v>
+        <v>15.7991677406599</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34778,25 +34778,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>52.65872908781463</v>
+        <v>52.65872908781481</v>
       </c>
       <c r="L3" t="n">
-        <v>117.596605360629</v>
+        <v>117.5966053606292</v>
       </c>
       <c r="M3" t="n">
-        <v>156.7820838755146</v>
+        <v>156.7820838755148</v>
       </c>
       <c r="N3" t="n">
-        <v>175.485825899632</v>
+        <v>175.4858258996323</v>
       </c>
       <c r="O3" t="n">
-        <v>138.0910091848228</v>
+        <v>138.0910091848231</v>
       </c>
       <c r="P3" t="n">
-        <v>91.30185944855691</v>
+        <v>91.30185944855708</v>
       </c>
       <c r="Q3" t="n">
-        <v>10.60944440764993</v>
+        <v>10.60944440765005</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34860,16 +34860,16 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>12.15921574646075</v>
+        <v>12.15921574646086</v>
       </c>
       <c r="M4" t="n">
-        <v>16.11138312061149</v>
+        <v>16.11138312061163</v>
       </c>
       <c r="N4" t="n">
-        <v>23.66518529520823</v>
+        <v>23.66518529520835</v>
       </c>
       <c r="O4" t="n">
-        <v>1.340357307400495</v>
+        <v>1.340357307400609</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>113.6232845278982</v>
+        <v>113.6232845278981</v>
       </c>
       <c r="K8" t="n">
-        <v>221.5428782406007</v>
+        <v>221.5428782406005</v>
       </c>
       <c r="L8" t="n">
-        <v>312.1180375460303</v>
+        <v>312.1180375460301</v>
       </c>
       <c r="M8" t="n">
-        <v>379.2807862290468</v>
+        <v>379.2807862290466</v>
       </c>
       <c r="N8" t="n">
-        <v>390.0783583799583</v>
+        <v>390.078358379958</v>
       </c>
       <c r="O8" t="n">
-        <v>354.8699716422242</v>
+        <v>354.8699716422241</v>
       </c>
       <c r="P8" t="n">
-        <v>268.0238147725504</v>
+        <v>268.0238147725503</v>
       </c>
       <c r="Q8" t="n">
         <v>152.6153827719017</v>
       </c>
       <c r="R8" t="n">
-        <v>2.503252264661882</v>
+        <v>2.503252264661825</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>48.66532364820665</v>
+        <v>48.66532364820662</v>
       </c>
       <c r="K9" t="n">
-        <v>162.1210568124054</v>
+        <v>162.1210568124053</v>
       </c>
       <c r="L9" t="n">
-        <v>264.7822134766044</v>
+        <v>264.7822134766043</v>
       </c>
       <c r="M9" t="n">
-        <v>328.5407462502221</v>
+        <v>328.540746250222</v>
       </c>
       <c r="N9" t="n">
-        <v>351.7904289835473</v>
+        <v>351.7904289835471</v>
       </c>
       <c r="O9" t="n">
-        <v>299.3752771065946</v>
+        <v>299.3752771065945</v>
       </c>
       <c r="P9" t="n">
-        <v>220.7467035280102</v>
+        <v>220.7467035280101</v>
       </c>
       <c r="Q9" t="n">
-        <v>97.1398946370681</v>
+        <v>97.13989463706804</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35331,22 +35331,22 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>51.92293345531004</v>
+        <v>51.92293345530999</v>
       </c>
       <c r="L10" t="n">
-        <v>96.65135484936243</v>
+        <v>96.65135484936238</v>
       </c>
       <c r="M10" t="n">
-        <v>105.1964971325556</v>
+        <v>105.1964971325555</v>
       </c>
       <c r="N10" t="n">
-        <v>110.6320544109686</v>
+        <v>110.6320544109685</v>
       </c>
       <c r="O10" t="n">
-        <v>81.66833693146287</v>
+        <v>81.66833693146282</v>
       </c>
       <c r="P10" t="n">
-        <v>50.62685458858689</v>
+        <v>50.62685458858684</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>229.1600138937055</v>
+        <v>229.1600138937054</v>
       </c>
       <c r="K11" t="n">
-        <v>394.7024857525323</v>
+        <v>394.7024857525321</v>
       </c>
       <c r="L11" t="n">
         <v>526.9378424844786</v>
       </c>
       <c r="M11" t="n">
-        <v>618.3092105681835</v>
+        <v>618.3092105681833</v>
       </c>
       <c r="N11" t="n">
-        <v>632.974512521426</v>
+        <v>632.9745125214258</v>
       </c>
       <c r="O11" t="n">
-        <v>584.2299222739939</v>
+        <v>584.2299222739937</v>
       </c>
       <c r="P11" t="n">
-        <v>463.7772262067664</v>
+        <v>463.7772262067663</v>
       </c>
       <c r="Q11" t="n">
-        <v>299.6180424081475</v>
+        <v>299.6180424081474</v>
       </c>
       <c r="R11" t="n">
-        <v>88.01360235553085</v>
+        <v>88.01360235553079</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,31 +35486,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>117.4782081526471</v>
+        <v>117.478208152647</v>
       </c>
       <c r="K12" t="n">
-        <v>279.7332367854792</v>
+        <v>279.7332367854791</v>
       </c>
       <c r="L12" t="n">
-        <v>32.77928524073501</v>
+        <v>208.0157133629148</v>
       </c>
       <c r="M12" t="n">
-        <v>513.0874403601299</v>
+        <v>513.0874403601297</v>
       </c>
       <c r="N12" t="n">
-        <v>541.2215249507174</v>
+        <v>541.2215249507173</v>
       </c>
       <c r="O12" t="n">
-        <v>472.6677215480031</v>
+        <v>472.667721548003</v>
       </c>
       <c r="P12" t="n">
-        <v>359.8291679240144</v>
+        <v>359.8291679240143</v>
       </c>
       <c r="Q12" t="n">
-        <v>190.1128388187326</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>14.87641069655348</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,19 +35565,19 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>59.91672319186281</v>
+        <v>59.91672319186279</v>
       </c>
       <c r="K13" t="n">
-        <v>229.6099018070199</v>
+        <v>229.6099018070198</v>
       </c>
       <c r="L13" t="n">
-        <v>349.9089300703704</v>
+        <v>349.9089300703703</v>
       </c>
       <c r="M13" t="n">
         <v>379.423969638847</v>
       </c>
       <c r="N13" t="n">
-        <v>375.8916272323315</v>
+        <v>375.8916272323314</v>
       </c>
       <c r="O13" t="n">
         <v>331.0186812946636</v>
@@ -35586,7 +35586,7 @@
         <v>259.4854022142</v>
       </c>
       <c r="Q13" t="n">
-        <v>95.3763835677632</v>
+        <v>95.37638356776314</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35720,13 +35720,13 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
         <v>500.328895167433</v>
@@ -35735,19 +35735,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>59.99058959552271</v>
       </c>
       <c r="O15" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35960,13 +35960,13 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>25.73094315394657</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
@@ -35975,16 +35975,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>220.9409070342396</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36197,10 +36197,10 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>500.328895167433</v>
@@ -36209,19 +36209,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>334.4034204366973</v>
+        <v>122.3296324324666</v>
       </c>
       <c r="O21" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36282,7 +36282,7 @@
         <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.342014319131</v>
       </c>
       <c r="M22" t="n">
         <v>426.2724270010451</v>
@@ -36434,7 +36434,7 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>337.2977496678996</v>
@@ -36443,22 +36443,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>622.2770956904935</v>
       </c>
       <c r="O24" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36680,22 +36680,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>235.5010321525773</v>
       </c>
       <c r="O27" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36762,7 +36762,7 @@
         <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
-        <v>421.626132989904</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
         <v>373.2618997060454</v>
@@ -36908,10 +36908,10 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>500.328895167433</v>
@@ -36923,16 +36923,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>150.1270658774933</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36999,7 +36999,7 @@
         <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899096</v>
       </c>
       <c r="O31" t="n">
         <v>373.2618997060454</v>
@@ -37148,22 +37148,22 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641938</v>
+        <v>211.4890361370311</v>
       </c>
       <c r="N33" t="n">
-        <v>332.6181808359224</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37385,10 +37385,10 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>432.0572943778175</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
@@ -37397,13 +37397,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>257.9506595121318</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37616,22 +37616,22 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>235.5010321525773</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
         <v>557.4845759992799</v>
@@ -37640,10 +37640,10 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>110.1905571410452</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37859,10 +37859,10 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
@@ -37871,16 +37871,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>407.3236446867659</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>222.5537898377871</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38090,7 +38090,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38102,22 +38102,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>237.2862717533522</v>
       </c>
       <c r="O45" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
